--- a/files/Doc/tables.xlsx
+++ b/files/Doc/tables.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="leica-measure_formats" sheetId="1" r:id="rId1"/>
     <sheet name="leica-codes" sheetId="2" r:id="rId2"/>
     <sheet name="topcon-codes" sheetId="3" r:id="rId3"/>
     <sheet name="rw5" sheetId="4" r:id="rId4"/>
+    <sheet name="FinalRate" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="244">
   <si>
     <t>Позиція</t>
   </si>
@@ -719,17 +720,79 @@
   <si>
     <t>Одиниці вимірювання віддалі. 0 - Фути, 1 - Метри, 2 - Американські фути</t>
   </si>
+  <si>
+    <t>Види робіт</t>
+  </si>
+  <si>
+    <t>Виконавці</t>
+  </si>
+  <si>
+    <t>К-ть</t>
+  </si>
+  <si>
+    <t>Кількість людино-днів</t>
+  </si>
+  <si>
+    <t>Середня заробітна плата за 1 день, грн</t>
+  </si>
+  <si>
+    <t>Основна заробітна плата, грн.</t>
+  </si>
+  <si>
+    <t>Посада</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Тестування на веб - сервері та мережі Інтернет</t>
+  </si>
+  <si>
+    <t>Загальна сума</t>
+  </si>
+  <si>
+    <t>ПДВ 20%</t>
+  </si>
+  <si>
+    <t>Загальна сума з врахуванням ПДВ (20%)</t>
+  </si>
+  <si>
+    <t>Магістр</t>
+  </si>
+  <si>
+    <t>Написання веб-додатку</t>
+  </si>
+  <si>
+    <t>Польові дослідження</t>
+  </si>
+  <si>
+    <t>10.10 -12.10</t>
+  </si>
+  <si>
+    <t>2.11-22.11</t>
+  </si>
+  <si>
+    <t>22.11-27.11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,8 +842,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +866,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -921,91 +997,112 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,261 +1424,258 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="29">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="29">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="29">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="2">
         <v>4</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="2">
         <v>6</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="2">
         <v>7</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="2">
         <v>8</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C23"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B14"/>
@@ -1591,6 +1685,9 @@
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1611,226 +1708,226 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>42</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>53</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>58</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>59</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>81</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>82</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>83</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>84</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>85</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>86</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>87</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>88</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1857,319 +1954,319 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="2:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="2:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="11" t="s">
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="2:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="2:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="23" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2199,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -2213,587 +2310,587 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="32" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="32" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="32" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="32" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="32" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="21" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="31"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="31"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="31"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="31"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F43" s="31"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F44" s="31"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F45" s="31"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F46" s="31"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F47" s="31"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="31"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="31"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="31"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F51" s="31"/>
+      <c r="F51" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2818,4 +2915,299 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1625</v>
+      </c>
+      <c r="G4" s="28">
+        <f>F4*E4</f>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="28">
+        <v>20</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1350</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" ref="G5:G6" si="0">F5*E5</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="28">
+        <v>5</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1350</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="28">
+        <f>SUM(G4:G6)</f>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="28">
+        <f>G7*0.2</f>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="28">
+        <f>SUM(G7:G8)</f>
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" s="42"/>
+      <c r="L15" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K16" s="42"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="N17" s="25">
+        <v>2</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="N18" s="25">
+        <v>20</v>
+      </c>
+      <c r="O18" s="24"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="24"/>
+    </row>
+    <row r="19" spans="12:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
+        <v>3</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N19" s="25">
+        <v>5</v>
+      </c>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="O15:O16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>